--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem3/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem3/123/word_level_predictions_123.xlsx
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -785,7 +785,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G7" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -809,7 +809,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem3/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem3/123/word_level_predictions_123.xlsx
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -785,7 +785,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G7" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -809,7 +809,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
